--- a/Hardware/modFOC-ESC/Project Outputs for modFOC-ESC/modFOC-ESC.xlsx
+++ b/Hardware/modFOC-ESC/Project Outputs for modFOC-ESC/modFOC-ESC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\modFOC\Hardware\modFOC-ESC\Project Outputs for modFOC-ESC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C0D36A5-95A9-4694-BBFD-26386D27DB53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A411E983-189D-48F1-890E-0F264520BCBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="14400" windowHeight="7380" xr2:uid="{C443403D-16F0-4B53-8BFA-F8FADD885FA2}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="14400" windowHeight="7380" xr2:uid="{B1D5A541-AADB-4498-B8C6-D8A228C1FC1E}"/>
   </bookViews>
   <sheets>
     <sheet name="modFOC-ESC" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
   <si>
     <t>Designator</t>
   </si>
@@ -255,16 +255,22 @@
     <t>QFN50P600X600X80-41N-D</t>
   </si>
   <si>
-    <t>IC 100, Motor_U300, Motor_V300, Motor_W300, Vbat-300, Vbat+300, XTL100</t>
-  </si>
-  <si>
-    <t>FOC Motion Controller, [NoValue], 25Mhz Oscillator</t>
-  </si>
-  <si>
-    <t>Motion Ctrl, PowerPad, PW_PAD_SMOL, 25MHz</t>
-  </si>
-  <si>
-    <t>QFN40P1050X650X90-77N, POWER_PAD, PW_PAD_SMOL, FOX924B25</t>
+    <t>IC 100</t>
+  </si>
+  <si>
+    <t>FOC Motion Controller</t>
+  </si>
+  <si>
+    <t>Motion Ctrl</t>
+  </si>
+  <si>
+    <t>Trinamic</t>
+  </si>
+  <si>
+    <t>TMC4671-LA</t>
+  </si>
+  <si>
+    <t>QFN40P1050X650X90-77N</t>
   </si>
   <si>
     <t>J100</t>
@@ -363,6 +369,18 @@
     <t>LGQ396PS35</t>
   </si>
   <si>
+    <t>Motor_U300, Motor_V300, Motor_W300, Vbat-300, Vbat+300</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PowerPad, PW_PAD_SMOL</t>
+  </si>
+  <si>
+    <t>POWER_PAD, PW_PAD_SMOL</t>
+  </si>
+  <si>
     <t>Q300, Q301, Q302, Q303, Q304, Q305</t>
   </si>
   <si>
@@ -520,6 +538,24 @@
   </si>
   <si>
     <t>SOT95P285X140-6N</t>
+  </si>
+  <si>
+    <t>XTL100</t>
+  </si>
+  <si>
+    <t>25Mhz Oscillator</t>
+  </si>
+  <si>
+    <t>25MHz</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>FOX924B-25</t>
+  </si>
+  <si>
+    <t>FOX924B25</t>
   </si>
 </sst>
 </file>
@@ -901,11 +937,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5850FF-6B1C-46E5-837A-ED605E438C2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2408A50-8D59-4BA9-B553-8C948C8DC2BD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1238,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -1248,33 +1284,37 @@
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="F15" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G15" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -1282,22 +1322,22 @@
     </row>
     <row r="17" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -1305,22 +1345,22 @@
     </row>
     <row r="18" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -1328,22 +1368,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -1351,22 +1391,22 @@
     </row>
     <row r="20" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -1374,22 +1414,22 @@
     </row>
     <row r="21" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -1397,51 +1437,47 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" ht="59" x14ac:dyDescent="0.75">
       <c r="A23" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G23" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A24" s="3" t="s">
         <v>114</v>
       </c>
@@ -1461,142 +1497,142 @@
         <v>119</v>
       </c>
       <c r="G24" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A25" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G25" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="G26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A28" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -1604,120 +1640,166 @@
     </row>
     <row r="31" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A31" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G31" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A32" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="G32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A33" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A34" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="4">
+    <row r="35" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A35" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A35" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="3" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="E36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="48" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>